--- a/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,92</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 13,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 8,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,75; -0,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,75; -0,61</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,37</t>
+          <t>0,0; 10,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,57</t>
+          <t>0,0; 11,32</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 12,44</t>
+          <t>-7,85; 12,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 14,16</t>
+          <t>-7,92; 15,02</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,66</t>
+          <t>0,0; 18,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,65; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,3</t>
+          <t>0,0; 23,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,65; 0,0</t>
         </is>
       </c>
     </row>
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,13</t>
+          <t>0,0; 6,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 7,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-11,97; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,0</t>
+          <t>0,0; 8,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-11,97; 0,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,05</t>
+          <t>0,0; 15,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,72</t>
+          <t>-2,4; 7,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,72</t>
+          <t>0,0; 18,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,2</t>
+          <t>-2,41; 7,97</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1478,17 +1478,17 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-0,96; 1,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,06</t>
+          <t>-1,44; 1,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,22; 2,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-0,96; 2,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,07</t>
+          <t>-1,44; 1,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,76</t>
+          <t>0,0; 11,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,99</t>
+          <t>0,0; 8,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,33</t>
+          <t>0,0; 13,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,69</t>
+          <t>0,0; 9,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,91</t>
+          <t>0,0; 22,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,32</t>
+          <t>0,0; 29,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,52</t>
+          <t>0,0; 9,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,0</t>
+          <t>-10,25; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,92</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,13</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,0</t>
+          <t>-10,25; 0,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,25</t>
+          <t>0,0; 14,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,0</t>
+          <t>0,0; 17,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,13</t>
+          <t>0,21; 2,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,98</t>
+          <t>-0,78; 1,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,17</t>
+          <t>0,21; 2,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,02</t>
+          <t>-0,79; 1,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,77</t>
+          <t>0,0; 9,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,82</t>
+          <t>0,0; 8,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,34</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,67</t>
+          <t>0,0; 9,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,61</t>
+          <t>-10,61; -0,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,61</t>
+          <t>-10,61; -0,34</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,17</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,32</t>
+          <t>0,0; 11,57</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 12,91</t>
+          <t>-7,92; 12,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 15,02</t>
+          <t>-8,0; 14,16</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,89</t>
+          <t>0,0; 22,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,68</t>
+          <t>0,0; 29,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 7,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 7,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 0,0</t>
+          <t>-8,26; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,84</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,0</t>
+          <t>0,0; 8,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 0,0</t>
+          <t>-8,26; 0,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,55</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,87</t>
+          <t>0,0; 15,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 7,42</t>
+          <t>-2,48; 6,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,47</t>
+          <t>0,0; 17,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,97</t>
+          <t>-2,49; 7,2</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,02</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,95</t>
+          <t>-0,96; 2,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,18</t>
+          <t>-1,51; 1,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,99</t>
+          <t>-0,97; 2,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,19</t>
+          <t>-1,51; 1,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-3,57%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,7; -0,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,7; -0,37</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,37</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,57</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 12,44</t>
+          <t>-7,91; 12,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 14,16</t>
+          <t>-8,02; 14,27</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-2,92%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,72</t>
+          <t>-2,57; 6,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,2</t>
+          <t>-2,59; 6,91</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,06</t>
+          <t>-1,45; 1,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,07</t>
+          <t>-1,46; 1,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,92</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 13,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 9,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -0,37</t>
+          <t>-11,1; -0,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -0,37</t>
+          <t>-11,1; -0,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 12,52</t>
+          <t>-7,72; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 14,27</t>
+          <t>-7,83; 15,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,66</t>
+          <t>0,0; 22,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-14,46; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,3</t>
+          <t>0,0; 29,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-14,46; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,13</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,0</t>
+          <t>0,0; 8,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,05</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,61</t>
+          <t>-2,63; 7,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,72</t>
+          <t>0,0; 17,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,91</t>
+          <t>-2,64; 7,61</t>
         </is>
       </c>
     </row>
@@ -1468,27 +1468,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-1,03; 1,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,02</t>
+          <t>-1,52; 1,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-1,03; 2,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,04</t>
+          <t>-1,53; 1,08</t>
         </is>
       </c>
     </row>
